--- a/lib/PHPExcel/templates/OT_Default.xlsx
+++ b/lib/PHPExcel/templates/OT_Default.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\GPM\www\GPM-TEST\lib\PHPExcel\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GPM\lib\PHPExcel\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F42721D9-7BAC-48F7-AA75-D754EFDCEEE1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1940798-7D27-49B8-99A4-9F23D99D671B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15" yWindow="0" windowWidth="9645" windowHeight="10575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -351,7 +351,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
@@ -455,6 +455,15 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -946,7 +955,7 @@
   <dimension ref="A1:R241"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A28" sqref="A28:P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1411,24 +1420,24 @@
       <c r="R27" s="3"/>
     </row>
     <row r="28" spans="1:18" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="21"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="J28" s="23"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="N28" s="24"/>
+      <c r="A28" s="42"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="J28" s="26"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="44"/>
+      <c r="M28" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="N28" s="43"/>
       <c r="O28" s="26"/>
       <c r="P28" s="27"/>
       <c r="Q28" s="17"/>
